--- a/Kopie van 200108 BR Sjabloon SysteemTest.xlsx
+++ b/Kopie van 200108 BR Sjabloon SysteemTest.xlsx
@@ -2669,7 +2669,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2787,21 +2787,23 @@
   </sheetPr>
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" style="17" customWidth="1"/>
-    <col min="3" max="5" width="28" style="17" customWidth="1"/>
+    <col min="3" max="3" width="92.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="40.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="72.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="17" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" style="17" customWidth="1"/>
@@ -4216,15 +4218,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
@@ -4236,6 +4229,15 @@
     <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4514,14 +4516,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D81714B-3B8F-4602-994C-B2E47BD0EFA5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{051E6000-6DB9-4FEC-AC64-62CA7592EBDE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -4535,6 +4529,14 @@
     <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
     <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D81714B-3B8F-4602-994C-B2E47BD0EFA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
